--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-570185.0439032112</v>
+        <v>-572697.4522845763</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>156.4137015018254</v>
       </c>
       <c r="E2" t="n">
-        <v>287.4853833252949</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,19 +820,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>144.9125268473768</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>81.01649060464064</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>96.64411148544514</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>48.85589892224601</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>374.3983094099661</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>235.2884396634751</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>91.8796145189449</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>101.1037207411569</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,16 +1187,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>46.27144787879996</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5146946421462</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>186.8748207145263</v>
       </c>
       <c r="U10" t="n">
-        <v>168.4243449750664</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>14.19454216862647</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>209.1156873304392</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>115.8627380890762</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>28.7518808581156</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>173.2052365248848</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>20.72279572932659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>126.4418041083153</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881274</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>71.58885292963951</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444117</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45.16086499484882</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261728</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545291</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652587</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3910,13 +3910,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1480.516858765519</v>
+        <v>2144.895377947846</v>
       </c>
       <c r="C2" t="n">
-        <v>1111.554341825107</v>
+        <v>1775.932861007434</v>
       </c>
       <c r="D2" t="n">
-        <v>1111.554341825107</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>821.1650657389509</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066532</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X2" t="n">
-        <v>2257.256030805453</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="Y2" t="n">
-        <v>1867.116698829641</v>
+        <v>2144.895377947846</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463.6594280995018</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C4" t="n">
-        <v>294.723245171595</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D4" t="n">
-        <v>294.723245171595</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E4" t="n">
-        <v>294.723245171595</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>294.723245171595</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>148.3469554267699</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4513,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1829.67423345673</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1829.67423345673</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214137</v>
+        <v>1829.67423345673</v>
       </c>
       <c r="V4" t="n">
-        <v>1383.50719300825</v>
+        <v>1574.989745250843</v>
       </c>
       <c r="W4" t="n">
-        <v>1094.090022971289</v>
+        <v>1285.572575213882</v>
       </c>
       <c r="X4" t="n">
-        <v>866.1004720732717</v>
+        <v>1057.583024315865</v>
       </c>
       <c r="Y4" t="n">
-        <v>645.3078929297416</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2014.778044008242</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C5" t="n">
-        <v>1645.81552706783</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="D5" t="n">
-        <v>1287.54982846108</v>
+        <v>1142.948263149733</v>
       </c>
       <c r="E5" t="n">
-        <v>901.7615758628356</v>
+        <v>757.160010551489</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>346.1741057618814</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4565,16 +4565,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.243802269322</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.778044008242</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2014.778044008242</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4638,10 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>789.0659616987016</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>620.1297787707947</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V7" t="n">
-        <v>1480.924175709432</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W7" t="n">
-        <v>1191.507005672471</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X7" t="n">
-        <v>1191.507005672471</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y7" t="n">
-        <v>970.7144265289413</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2694.273621298224</v>
       </c>
       <c r="X8" t="n">
-        <v>2434.183678346854</v>
+        <v>2320.807863037144</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2320.807863037144</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1457.015761506659</v>
       </c>
       <c r="U10" t="n">
-        <v>1565.483062930404</v>
+        <v>1457.015761506659</v>
       </c>
       <c r="V10" t="n">
-        <v>1310.798574724517</v>
+        <v>1457.015761506659</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>1457.015761506659</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>1229.026210608642</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>718.5507239167111</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888043</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2052.880282234721</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1763.805055578919</v>
       </c>
       <c r="V16" t="n">
-        <v>1638.398488825459</v>
+        <v>1509.120567373032</v>
       </c>
       <c r="W16" t="n">
-        <v>1348.981318788498</v>
+        <v>1219.703397336071</v>
       </c>
       <c r="X16" t="n">
-        <v>1120.991767890481</v>
+        <v>991.7138464380538</v>
       </c>
       <c r="Y16" t="n">
-        <v>900.1991887469509</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>251.562654109227</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400667</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.043492616109</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2148.043492616109</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>119.2902967703794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703794</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2252.19838578386</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2252.19838578386</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,10 +6251,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>119.2902967703794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703794</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969311</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362665</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6479,34 +6479,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245714</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.17510664033</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266882</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.043492616109</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6917,40 +6917,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.043492616109</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7148,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745236</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338367</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942657</v>
@@ -7336,7 +7336,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7576,25 +7576,25 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7634,16 +7634,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,19 +7801,19 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380734</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311328</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -7825,13 +7825,13 @@
         <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22544,19 +22544,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>198.2693401188576</v>
       </c>
       <c r="E2" t="n">
-        <v>94.44498674696683</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22717,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>21.11328141165146</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>169.7287544298488</v>
       </c>
     </row>
     <row r="5">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462256</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>271.9899322206194</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>8.289762996849078</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>136.2749052347518</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>116.6691671648156</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>112.9792378643594</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>265.8002026072644</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>54.58448189332931</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>146.9958004224553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>134.6711151870885</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>137.2878198583898</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1163602.67178853</v>
+        <v>1163602.671788529</v>
       </c>
     </row>
     <row r="11">
@@ -26314,22 +26314,22 @@
         <v>229059.6437758986</v>
       </c>
       <c r="C2" t="n">
+        <v>266838.5752058922</v>
+      </c>
+      <c r="D2" t="n">
         <v>266838.5752058921</v>
       </c>
-      <c r="D2" t="n">
-        <v>266838.5752058922</v>
-      </c>
       <c r="E2" t="n">
+        <v>262322.644899252</v>
+      </c>
+      <c r="F2" t="n">
         <v>262322.6448992519</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>262322.6448992519</v>
+      </c>
+      <c r="H2" t="n">
         <v>262322.644899252</v>
-      </c>
-      <c r="G2" t="n">
-        <v>262322.644899252</v>
-      </c>
-      <c r="H2" t="n">
-        <v>262322.6448992519</v>
       </c>
       <c r="I2" t="n">
         <v>262322.644899252</v>
@@ -26338,10 +26338,10 @@
         <v>262322.644899252</v>
       </c>
       <c r="K2" t="n">
+        <v>262322.6448992519</v>
+      </c>
+      <c r="L2" t="n">
         <v>262322.644899252</v>
-      </c>
-      <c r="L2" t="n">
-        <v>262322.6448992519</v>
       </c>
       <c r="M2" t="n">
         <v>262322.6448992519</v>
@@ -26350,7 +26350,7 @@
         <v>266838.5752058924</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058923</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>19427.71799363176</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27056.18620085767</v>
+        <v>27056.18620085788</v>
       </c>
       <c r="C4" t="n">
+        <v>93403.78684820633</v>
+      </c>
+      <c r="D4" t="n">
         <v>93403.78684820636</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26439,16 +26439,16 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.7520768551</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685514</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>14216.75207685511</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="N4" t="n">
         <v>22207.61133994851</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1234675.228713945</v>
+        <v>-1234965.835878791</v>
       </c>
       <c r="C6" t="n">
-        <v>65500.84779629267</v>
+        <v>65500.84779629257</v>
       </c>
       <c r="D6" t="n">
-        <v>65500.8477962926</v>
+        <v>65500.84779629251</v>
       </c>
       <c r="E6" t="n">
-        <v>-178429.0988088654</v>
+        <v>-178463.8367343011</v>
       </c>
       <c r="F6" t="n">
-        <v>146983.3629984898</v>
+        <v>146948.625073054</v>
       </c>
       <c r="G6" t="n">
-        <v>146983.3629984898</v>
+        <v>146948.6250730541</v>
       </c>
       <c r="H6" t="n">
-        <v>146983.36299849</v>
+        <v>146948.6250730541</v>
       </c>
       <c r="I6" t="n">
-        <v>146983.3629984898</v>
+        <v>146948.6250730541</v>
       </c>
       <c r="J6" t="n">
-        <v>-70547.83939878768</v>
+        <v>-70582.57732422334</v>
       </c>
       <c r="K6" t="n">
-        <v>146983.3629984898</v>
+        <v>146948.625073054</v>
       </c>
       <c r="L6" t="n">
-        <v>146983.3629984896</v>
+        <v>146948.6250730541</v>
       </c>
       <c r="M6" t="n">
-        <v>61928.335062978</v>
+        <v>61893.59713754218</v>
       </c>
       <c r="N6" t="n">
-        <v>122039.1300183967</v>
+        <v>122039.1300183968</v>
       </c>
       <c r="O6" t="n">
-        <v>141466.8480120281</v>
+        <v>141466.8480120284</v>
       </c>
       <c r="P6" t="n">
         <v>141466.8480120284</v>
@@ -26725,7 +26725,7 @@
         <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>63.73852430968014</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>93.12491384599676</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>32.47773633174529</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>175.6332859899784</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>56.73585849926745</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>124.6059346478803</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,16 +27907,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>302.9695208386131</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2164060363229</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>32.67412856164293</v>
       </c>
       <c r="U10" t="n">
-        <v>117.7874932305465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31838,13 +31838,13 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>543.0832917018715</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,10 +32576,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817591</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,40 +32783,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>163.572382128306</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32862,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32892,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32935,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32974,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33020,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>163.572382128306</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33099,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33129,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33172,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33211,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551115</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,10 +33287,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33336,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33366,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319857</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,10 +33524,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33573,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33603,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33646,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33685,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,25 +33731,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319857</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,10 +33761,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33810,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33840,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33883,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175693</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33922,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33968,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.410447117911</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34047,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34077,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,10 +34223,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998938</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>409.1088842875412</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367786</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>25.73094315394703</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36522,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36589,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>25.73094315394704</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36759,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36826,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075249</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36996,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875412</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37233,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875412</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37470,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37537,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394708</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37707,16 +37707,16 @@
         <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,10 +37871,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
